--- a/docs/Summary_of_Data_and_Sources.xlsx
+++ b/docs/Summary_of_Data_and_Sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="25800" windowHeight="17300" tabRatio="714"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="25800" windowHeight="17300" tabRatio="714" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2860,9 +2860,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2879,6 +2876,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5729,9 +5729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15010,8 +15010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ET93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16813,224 +16813,224 @@
       <c r="C53" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="216"/>
-      <c r="E53" s="216"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="222"/>
       <c r="F53" s="215"/>
       <c r="G53" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="H53" s="216"/>
-      <c r="I53" s="216"/>
+      <c r="H53" s="222"/>
+      <c r="I53" s="222"/>
       <c r="J53" s="215"/>
       <c r="K53" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="L53" s="216"/>
-      <c r="M53" s="216"/>
+      <c r="L53" s="222"/>
+      <c r="M53" s="222"/>
       <c r="N53" s="215"/>
       <c r="O53" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="P53" s="216"/>
-      <c r="Q53" s="216"/>
+      <c r="P53" s="222"/>
+      <c r="Q53" s="222"/>
       <c r="R53" s="215"/>
       <c r="S53" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="T53" s="216"/>
-      <c r="U53" s="216"/>
+      <c r="T53" s="222"/>
+      <c r="U53" s="222"/>
       <c r="V53" s="215"/>
       <c r="W53" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="X53" s="216"/>
-      <c r="Y53" s="216"/>
+      <c r="X53" s="222"/>
+      <c r="Y53" s="222"/>
       <c r="Z53" s="215"/>
       <c r="AA53" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="AB53" s="216"/>
-      <c r="AC53" s="216"/>
+      <c r="AB53" s="222"/>
+      <c r="AC53" s="222"/>
       <c r="AD53" s="215"/>
       <c r="AE53" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="AF53" s="216"/>
-      <c r="AG53" s="216"/>
+      <c r="AF53" s="222"/>
+      <c r="AG53" s="222"/>
       <c r="AH53" s="215"/>
       <c r="AI53" s="214" t="s">
         <v>171</v>
       </c>
-      <c r="AJ53" s="216"/>
-      <c r="AK53" s="216"/>
+      <c r="AJ53" s="222"/>
+      <c r="AK53" s="222"/>
       <c r="AL53" s="215"/>
       <c r="AM53" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="AN53" s="216"/>
-      <c r="AO53" s="216"/>
+      <c r="AN53" s="222"/>
+      <c r="AO53" s="222"/>
       <c r="AP53" s="215"/>
       <c r="AQ53" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="AR53" s="216"/>
-      <c r="AS53" s="216"/>
+      <c r="AR53" s="222"/>
+      <c r="AS53" s="222"/>
       <c r="AT53" s="215"/>
       <c r="AU53" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="AV53" s="216"/>
-      <c r="AW53" s="216"/>
+      <c r="AV53" s="222"/>
+      <c r="AW53" s="222"/>
       <c r="AX53" s="215"/>
       <c r="AY53" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="AZ53" s="216"/>
-      <c r="BA53" s="216"/>
+      <c r="AZ53" s="222"/>
+      <c r="BA53" s="222"/>
       <c r="BB53" s="215"/>
       <c r="BC53" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="BD53" s="216"/>
-      <c r="BE53" s="216"/>
+      <c r="BD53" s="222"/>
+      <c r="BE53" s="222"/>
       <c r="BF53" s="215"/>
       <c r="BG53" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="BH53" s="216"/>
-      <c r="BI53" s="216"/>
+      <c r="BH53" s="222"/>
+      <c r="BI53" s="222"/>
       <c r="BJ53" s="215"/>
       <c r="BK53" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="BL53" s="216"/>
-      <c r="BM53" s="216"/>
+      <c r="BL53" s="222"/>
+      <c r="BM53" s="222"/>
       <c r="BN53" s="215"/>
       <c r="BO53" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="BP53" s="216"/>
-      <c r="BQ53" s="216"/>
+      <c r="BP53" s="222"/>
+      <c r="BQ53" s="222"/>
       <c r="BR53" s="215"/>
       <c r="BS53" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="BT53" s="216"/>
-      <c r="BU53" s="216"/>
+      <c r="BT53" s="222"/>
+      <c r="BU53" s="222"/>
       <c r="BV53" s="215"/>
       <c r="BW53" s="214" t="s">
         <v>180</v>
       </c>
-      <c r="BX53" s="216"/>
-      <c r="BY53" s="216"/>
+      <c r="BX53" s="222"/>
+      <c r="BY53" s="222"/>
       <c r="BZ53" s="215"/>
       <c r="CA53" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="CB53" s="216"/>
-      <c r="CC53" s="216"/>
+      <c r="CB53" s="222"/>
+      <c r="CC53" s="222"/>
       <c r="CD53" s="215"/>
       <c r="CE53" s="214" t="s">
         <v>182</v>
       </c>
-      <c r="CF53" s="216"/>
-      <c r="CG53" s="216"/>
+      <c r="CF53" s="222"/>
+      <c r="CG53" s="222"/>
       <c r="CH53" s="215"/>
       <c r="CI53" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="CJ53" s="216"/>
-      <c r="CK53" s="216"/>
+      <c r="CJ53" s="222"/>
+      <c r="CK53" s="222"/>
       <c r="CL53" s="215"/>
       <c r="CM53" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="CN53" s="216"/>
-      <c r="CO53" s="216"/>
+      <c r="CN53" s="222"/>
+      <c r="CO53" s="222"/>
       <c r="CP53" s="215"/>
       <c r="CQ53" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="CR53" s="216"/>
-      <c r="CS53" s="216"/>
+      <c r="CR53" s="222"/>
+      <c r="CS53" s="222"/>
       <c r="CT53" s="215"/>
       <c r="CU53" s="214" t="s">
         <v>186</v>
       </c>
-      <c r="CV53" s="216"/>
-      <c r="CW53" s="216"/>
+      <c r="CV53" s="222"/>
+      <c r="CW53" s="222"/>
       <c r="CX53" s="215"/>
       <c r="CY53" s="214" t="s">
         <v>187</v>
       </c>
-      <c r="CZ53" s="216"/>
-      <c r="DA53" s="216"/>
+      <c r="CZ53" s="222"/>
+      <c r="DA53" s="222"/>
       <c r="DB53" s="215"/>
       <c r="DC53" s="214" t="s">
         <v>188</v>
       </c>
-      <c r="DD53" s="216"/>
-      <c r="DE53" s="216"/>
+      <c r="DD53" s="222"/>
+      <c r="DE53" s="222"/>
       <c r="DF53" s="215"/>
       <c r="DG53" s="214" t="s">
         <v>189</v>
       </c>
-      <c r="DH53" s="216"/>
-      <c r="DI53" s="216"/>
+      <c r="DH53" s="222"/>
+      <c r="DI53" s="222"/>
       <c r="DJ53" s="215"/>
       <c r="DK53" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="DL53" s="216"/>
-      <c r="DM53" s="216"/>
+      <c r="DL53" s="222"/>
+      <c r="DM53" s="222"/>
       <c r="DN53" s="215"/>
       <c r="DO53" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="DP53" s="216"/>
-      <c r="DQ53" s="216"/>
+      <c r="DP53" s="222"/>
+      <c r="DQ53" s="222"/>
       <c r="DR53" s="215"/>
       <c r="DS53" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="DT53" s="216"/>
-      <c r="DU53" s="216"/>
+      <c r="DT53" s="222"/>
+      <c r="DU53" s="222"/>
       <c r="DV53" s="215"/>
       <c r="DW53" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="DX53" s="216"/>
-      <c r="DY53" s="216"/>
+      <c r="DX53" s="222"/>
+      <c r="DY53" s="222"/>
       <c r="DZ53" s="215"/>
       <c r="EA53" s="214" t="s">
         <v>194</v>
       </c>
-      <c r="EB53" s="216"/>
-      <c r="EC53" s="216"/>
+      <c r="EB53" s="222"/>
+      <c r="EC53" s="222"/>
       <c r="ED53" s="215"/>
       <c r="EE53" s="214" t="s">
         <v>195</v>
       </c>
-      <c r="EF53" s="216"/>
-      <c r="EG53" s="216"/>
+      <c r="EF53" s="222"/>
+      <c r="EG53" s="222"/>
       <c r="EH53" s="215"/>
       <c r="EI53" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="EJ53" s="216"/>
-      <c r="EK53" s="216"/>
+      <c r="EJ53" s="222"/>
+      <c r="EK53" s="222"/>
       <c r="EL53" s="215"/>
       <c r="EM53" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="EN53" s="216"/>
-      <c r="EO53" s="216"/>
+      <c r="EN53" s="222"/>
+      <c r="EO53" s="222"/>
       <c r="EP53" s="215"/>
       <c r="EQ53" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="ER53" s="216"/>
-      <c r="ES53" s="216"/>
+      <c r="ER53" s="222"/>
+      <c r="ES53" s="222"/>
       <c r="ET53" s="215"/>
     </row>
     <row r="54" spans="2:150">
@@ -23494,11 +23494,11 @@
         <v>216</v>
       </c>
       <c r="D75" s="215"/>
-      <c r="E75" s="220" t="s">
+      <c r="E75" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="F75" s="221"/>
-      <c r="G75" s="222"/>
+      <c r="F75" s="220"/>
+      <c r="G75" s="221"/>
     </row>
     <row r="76" spans="2:150" ht="15" customHeight="1">
       <c r="B76" s="84"/>
@@ -23506,11 +23506,11 @@
         <v>217</v>
       </c>
       <c r="D76" s="215"/>
-      <c r="E76" s="217" t="s">
+      <c r="E76" s="216" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="218"/>
-      <c r="G76" s="219"/>
+      <c r="F76" s="217"/>
+      <c r="G76" s="218"/>
     </row>
     <row r="77" spans="2:150">
       <c r="B77" s="120"/>
@@ -23932,33 +23932,70 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AA54:AB54"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="W53:Z53"/>
-    <mergeCell ref="AA53:AD53"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="EK54:EL54"/>
+    <mergeCell ref="EM54:EN54"/>
+    <mergeCell ref="EO54:EP54"/>
+    <mergeCell ref="EQ54:ER54"/>
+    <mergeCell ref="ES54:ET54"/>
+    <mergeCell ref="DY54:DZ54"/>
+    <mergeCell ref="EA54:EB54"/>
+    <mergeCell ref="EC54:ED54"/>
+    <mergeCell ref="EE54:EF54"/>
+    <mergeCell ref="EG54:EH54"/>
+    <mergeCell ref="EI54:EJ54"/>
+    <mergeCell ref="DM54:DN54"/>
+    <mergeCell ref="DO54:DP54"/>
+    <mergeCell ref="DQ54:DR54"/>
+    <mergeCell ref="DS54:DT54"/>
+    <mergeCell ref="DU54:DV54"/>
+    <mergeCell ref="DW54:DX54"/>
+    <mergeCell ref="DA54:DB54"/>
+    <mergeCell ref="DC54:DD54"/>
+    <mergeCell ref="DE54:DF54"/>
+    <mergeCell ref="DG54:DH54"/>
+    <mergeCell ref="DI54:DJ54"/>
+    <mergeCell ref="DK54:DL54"/>
+    <mergeCell ref="CO54:CP54"/>
+    <mergeCell ref="CQ54:CR54"/>
+    <mergeCell ref="CS54:CT54"/>
+    <mergeCell ref="CU54:CV54"/>
+    <mergeCell ref="CW54:CX54"/>
+    <mergeCell ref="CY54:CZ54"/>
+    <mergeCell ref="CC54:CD54"/>
+    <mergeCell ref="CE54:CF54"/>
+    <mergeCell ref="CG54:CH54"/>
+    <mergeCell ref="CI54:CJ54"/>
+    <mergeCell ref="CK54:CL54"/>
+    <mergeCell ref="CM54:CN54"/>
+    <mergeCell ref="BQ54:BR54"/>
+    <mergeCell ref="BS54:BT54"/>
+    <mergeCell ref="BU54:BV54"/>
+    <mergeCell ref="BW54:BX54"/>
+    <mergeCell ref="BY54:BZ54"/>
+    <mergeCell ref="CA54:CB54"/>
+    <mergeCell ref="BE54:BF54"/>
+    <mergeCell ref="BG54:BH54"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BM54:BN54"/>
+    <mergeCell ref="BO54:BP54"/>
+    <mergeCell ref="AQ53:AT53"/>
+    <mergeCell ref="AU53:AX53"/>
+    <mergeCell ref="AY54:AZ54"/>
+    <mergeCell ref="BA54:BB54"/>
+    <mergeCell ref="BC54:BD54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AO54:AP54"/>
+    <mergeCell ref="AQ54:AR54"/>
+    <mergeCell ref="AY53:BB53"/>
+    <mergeCell ref="AI53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AS54:AT54"/>
+    <mergeCell ref="AU54:AV54"/>
+    <mergeCell ref="AW54:AX54"/>
     <mergeCell ref="EI53:EL53"/>
     <mergeCell ref="EM53:EP53"/>
     <mergeCell ref="EQ53:ET53"/>
@@ -23983,70 +24020,33 @@
     <mergeCell ref="CA53:CD53"/>
     <mergeCell ref="CE53:CH53"/>
     <mergeCell ref="CI53:CL53"/>
-    <mergeCell ref="AQ53:AT53"/>
-    <mergeCell ref="AU53:AX53"/>
-    <mergeCell ref="AY54:AZ54"/>
-    <mergeCell ref="BA54:BB54"/>
-    <mergeCell ref="BC54:BD54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AO54:AP54"/>
-    <mergeCell ref="AQ54:AR54"/>
-    <mergeCell ref="AY53:BB53"/>
-    <mergeCell ref="AI53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AS54:AT54"/>
-    <mergeCell ref="AU54:AV54"/>
-    <mergeCell ref="AW54:AX54"/>
-    <mergeCell ref="BQ54:BR54"/>
-    <mergeCell ref="BS54:BT54"/>
-    <mergeCell ref="BU54:BV54"/>
-    <mergeCell ref="BW54:BX54"/>
-    <mergeCell ref="BY54:BZ54"/>
-    <mergeCell ref="CA54:CB54"/>
-    <mergeCell ref="BE54:BF54"/>
-    <mergeCell ref="BG54:BH54"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BM54:BN54"/>
-    <mergeCell ref="BO54:BP54"/>
-    <mergeCell ref="CO54:CP54"/>
-    <mergeCell ref="CQ54:CR54"/>
-    <mergeCell ref="CS54:CT54"/>
-    <mergeCell ref="CU54:CV54"/>
-    <mergeCell ref="CW54:CX54"/>
-    <mergeCell ref="CY54:CZ54"/>
-    <mergeCell ref="CC54:CD54"/>
-    <mergeCell ref="CE54:CF54"/>
-    <mergeCell ref="CG54:CH54"/>
-    <mergeCell ref="CI54:CJ54"/>
-    <mergeCell ref="CK54:CL54"/>
-    <mergeCell ref="CM54:CN54"/>
-    <mergeCell ref="DM54:DN54"/>
-    <mergeCell ref="DO54:DP54"/>
-    <mergeCell ref="DQ54:DR54"/>
-    <mergeCell ref="DS54:DT54"/>
-    <mergeCell ref="DU54:DV54"/>
-    <mergeCell ref="DW54:DX54"/>
-    <mergeCell ref="DA54:DB54"/>
-    <mergeCell ref="DC54:DD54"/>
-    <mergeCell ref="DE54:DF54"/>
-    <mergeCell ref="DG54:DH54"/>
-    <mergeCell ref="DI54:DJ54"/>
-    <mergeCell ref="DK54:DL54"/>
-    <mergeCell ref="EK54:EL54"/>
-    <mergeCell ref="EM54:EN54"/>
-    <mergeCell ref="EO54:EP54"/>
-    <mergeCell ref="EQ54:ER54"/>
-    <mergeCell ref="ES54:ET54"/>
-    <mergeCell ref="DY54:DZ54"/>
-    <mergeCell ref="EA54:EB54"/>
-    <mergeCell ref="EC54:ED54"/>
-    <mergeCell ref="EE54:EF54"/>
-    <mergeCell ref="EG54:EH54"/>
-    <mergeCell ref="EI54:EJ54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="W53:Z53"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/docs/Summary_of_Data_and_Sources.xlsx
+++ b/docs/Summary_of_Data_and_Sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="25800" windowHeight="17300" tabRatio="714" activeTab="1"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="25800" windowHeight="17300" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="MWh2kWh">Main!$AB$20</definedName>
     <definedName name="ton2mt">Main!$AB$18</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2860,6 +2860,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2876,9 +2879,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5729,7 +5729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B229" sqref="B229"/>
     </sheetView>
@@ -15010,7 +15010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ET93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -16813,224 +16813,224 @@
       <c r="C53" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="222"/>
-      <c r="E53" s="222"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="216"/>
       <c r="F53" s="215"/>
       <c r="G53" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="H53" s="222"/>
-      <c r="I53" s="222"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
       <c r="J53" s="215"/>
       <c r="K53" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="L53" s="222"/>
-      <c r="M53" s="222"/>
+      <c r="L53" s="216"/>
+      <c r="M53" s="216"/>
       <c r="N53" s="215"/>
       <c r="O53" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="P53" s="222"/>
-      <c r="Q53" s="222"/>
+      <c r="P53" s="216"/>
+      <c r="Q53" s="216"/>
       <c r="R53" s="215"/>
       <c r="S53" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="T53" s="222"/>
-      <c r="U53" s="222"/>
+      <c r="T53" s="216"/>
+      <c r="U53" s="216"/>
       <c r="V53" s="215"/>
       <c r="W53" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="X53" s="222"/>
-      <c r="Y53" s="222"/>
+      <c r="X53" s="216"/>
+      <c r="Y53" s="216"/>
       <c r="Z53" s="215"/>
       <c r="AA53" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="AB53" s="222"/>
-      <c r="AC53" s="222"/>
+      <c r="AB53" s="216"/>
+      <c r="AC53" s="216"/>
       <c r="AD53" s="215"/>
       <c r="AE53" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="AF53" s="222"/>
-      <c r="AG53" s="222"/>
+      <c r="AF53" s="216"/>
+      <c r="AG53" s="216"/>
       <c r="AH53" s="215"/>
       <c r="AI53" s="214" t="s">
         <v>171</v>
       </c>
-      <c r="AJ53" s="222"/>
-      <c r="AK53" s="222"/>
+      <c r="AJ53" s="216"/>
+      <c r="AK53" s="216"/>
       <c r="AL53" s="215"/>
       <c r="AM53" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="AN53" s="222"/>
-      <c r="AO53" s="222"/>
+      <c r="AN53" s="216"/>
+      <c r="AO53" s="216"/>
       <c r="AP53" s="215"/>
       <c r="AQ53" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="AR53" s="222"/>
-      <c r="AS53" s="222"/>
+      <c r="AR53" s="216"/>
+      <c r="AS53" s="216"/>
       <c r="AT53" s="215"/>
       <c r="AU53" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="AV53" s="222"/>
-      <c r="AW53" s="222"/>
+      <c r="AV53" s="216"/>
+      <c r="AW53" s="216"/>
       <c r="AX53" s="215"/>
       <c r="AY53" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="AZ53" s="222"/>
-      <c r="BA53" s="222"/>
+      <c r="AZ53" s="216"/>
+      <c r="BA53" s="216"/>
       <c r="BB53" s="215"/>
       <c r="BC53" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="BD53" s="222"/>
-      <c r="BE53" s="222"/>
+      <c r="BD53" s="216"/>
+      <c r="BE53" s="216"/>
       <c r="BF53" s="215"/>
       <c r="BG53" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="BH53" s="222"/>
-      <c r="BI53" s="222"/>
+      <c r="BH53" s="216"/>
+      <c r="BI53" s="216"/>
       <c r="BJ53" s="215"/>
       <c r="BK53" s="214" t="s">
         <v>177</v>
       </c>
-      <c r="BL53" s="222"/>
-      <c r="BM53" s="222"/>
+      <c r="BL53" s="216"/>
+      <c r="BM53" s="216"/>
       <c r="BN53" s="215"/>
       <c r="BO53" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="BP53" s="222"/>
-      <c r="BQ53" s="222"/>
+      <c r="BP53" s="216"/>
+      <c r="BQ53" s="216"/>
       <c r="BR53" s="215"/>
       <c r="BS53" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="BT53" s="222"/>
-      <c r="BU53" s="222"/>
+      <c r="BT53" s="216"/>
+      <c r="BU53" s="216"/>
       <c r="BV53" s="215"/>
       <c r="BW53" s="214" t="s">
         <v>180</v>
       </c>
-      <c r="BX53" s="222"/>
-      <c r="BY53" s="222"/>
+      <c r="BX53" s="216"/>
+      <c r="BY53" s="216"/>
       <c r="BZ53" s="215"/>
       <c r="CA53" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="CB53" s="222"/>
-      <c r="CC53" s="222"/>
+      <c r="CB53" s="216"/>
+      <c r="CC53" s="216"/>
       <c r="CD53" s="215"/>
       <c r="CE53" s="214" t="s">
         <v>182</v>
       </c>
-      <c r="CF53" s="222"/>
-      <c r="CG53" s="222"/>
+      <c r="CF53" s="216"/>
+      <c r="CG53" s="216"/>
       <c r="CH53" s="215"/>
       <c r="CI53" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="CJ53" s="222"/>
-      <c r="CK53" s="222"/>
+      <c r="CJ53" s="216"/>
+      <c r="CK53" s="216"/>
       <c r="CL53" s="215"/>
       <c r="CM53" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="CN53" s="222"/>
-      <c r="CO53" s="222"/>
+      <c r="CN53" s="216"/>
+      <c r="CO53" s="216"/>
       <c r="CP53" s="215"/>
       <c r="CQ53" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="CR53" s="222"/>
-      <c r="CS53" s="222"/>
+      <c r="CR53" s="216"/>
+      <c r="CS53" s="216"/>
       <c r="CT53" s="215"/>
       <c r="CU53" s="214" t="s">
         <v>186</v>
       </c>
-      <c r="CV53" s="222"/>
-      <c r="CW53" s="222"/>
+      <c r="CV53" s="216"/>
+      <c r="CW53" s="216"/>
       <c r="CX53" s="215"/>
       <c r="CY53" s="214" t="s">
         <v>187</v>
       </c>
-      <c r="CZ53" s="222"/>
-      <c r="DA53" s="222"/>
+      <c r="CZ53" s="216"/>
+      <c r="DA53" s="216"/>
       <c r="DB53" s="215"/>
       <c r="DC53" s="214" t="s">
         <v>188</v>
       </c>
-      <c r="DD53" s="222"/>
-      <c r="DE53" s="222"/>
+      <c r="DD53" s="216"/>
+      <c r="DE53" s="216"/>
       <c r="DF53" s="215"/>
       <c r="DG53" s="214" t="s">
         <v>189</v>
       </c>
-      <c r="DH53" s="222"/>
-      <c r="DI53" s="222"/>
+      <c r="DH53" s="216"/>
+      <c r="DI53" s="216"/>
       <c r="DJ53" s="215"/>
       <c r="DK53" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="DL53" s="222"/>
-      <c r="DM53" s="222"/>
+      <c r="DL53" s="216"/>
+      <c r="DM53" s="216"/>
       <c r="DN53" s="215"/>
       <c r="DO53" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="DP53" s="222"/>
-      <c r="DQ53" s="222"/>
+      <c r="DP53" s="216"/>
+      <c r="DQ53" s="216"/>
       <c r="DR53" s="215"/>
       <c r="DS53" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="DT53" s="222"/>
-      <c r="DU53" s="222"/>
+      <c r="DT53" s="216"/>
+      <c r="DU53" s="216"/>
       <c r="DV53" s="215"/>
       <c r="DW53" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="DX53" s="222"/>
-      <c r="DY53" s="222"/>
+      <c r="DX53" s="216"/>
+      <c r="DY53" s="216"/>
       <c r="DZ53" s="215"/>
       <c r="EA53" s="214" t="s">
         <v>194</v>
       </c>
-      <c r="EB53" s="222"/>
-      <c r="EC53" s="222"/>
+      <c r="EB53" s="216"/>
+      <c r="EC53" s="216"/>
       <c r="ED53" s="215"/>
       <c r="EE53" s="214" t="s">
         <v>195</v>
       </c>
-      <c r="EF53" s="222"/>
-      <c r="EG53" s="222"/>
+      <c r="EF53" s="216"/>
+      <c r="EG53" s="216"/>
       <c r="EH53" s="215"/>
       <c r="EI53" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="EJ53" s="222"/>
-      <c r="EK53" s="222"/>
+      <c r="EJ53" s="216"/>
+      <c r="EK53" s="216"/>
       <c r="EL53" s="215"/>
       <c r="EM53" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="EN53" s="222"/>
-      <c r="EO53" s="222"/>
+      <c r="EN53" s="216"/>
+      <c r="EO53" s="216"/>
       <c r="EP53" s="215"/>
       <c r="EQ53" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="ER53" s="222"/>
-      <c r="ES53" s="222"/>
+      <c r="ER53" s="216"/>
+      <c r="ES53" s="216"/>
       <c r="ET53" s="215"/>
     </row>
     <row r="54" spans="2:150">
@@ -23494,11 +23494,11 @@
         <v>216</v>
       </c>
       <c r="D75" s="215"/>
-      <c r="E75" s="219" t="s">
+      <c r="E75" s="220" t="s">
         <v>216</v>
       </c>
-      <c r="F75" s="220"/>
-      <c r="G75" s="221"/>
+      <c r="F75" s="221"/>
+      <c r="G75" s="222"/>
     </row>
     <row r="76" spans="2:150" ht="15" customHeight="1">
       <c r="B76" s="84"/>
@@ -23506,11 +23506,11 @@
         <v>217</v>
       </c>
       <c r="D76" s="215"/>
-      <c r="E76" s="216" t="s">
+      <c r="E76" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="217"/>
-      <c r="G76" s="218"/>
+      <c r="F76" s="218"/>
+      <c r="G76" s="219"/>
     </row>
     <row r="77" spans="2:150">
       <c r="B77" s="120"/>
@@ -23932,70 +23932,33 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="EK54:EL54"/>
-    <mergeCell ref="EM54:EN54"/>
-    <mergeCell ref="EO54:EP54"/>
-    <mergeCell ref="EQ54:ER54"/>
-    <mergeCell ref="ES54:ET54"/>
-    <mergeCell ref="DY54:DZ54"/>
-    <mergeCell ref="EA54:EB54"/>
-    <mergeCell ref="EC54:ED54"/>
-    <mergeCell ref="EE54:EF54"/>
-    <mergeCell ref="EG54:EH54"/>
-    <mergeCell ref="EI54:EJ54"/>
-    <mergeCell ref="DM54:DN54"/>
-    <mergeCell ref="DO54:DP54"/>
-    <mergeCell ref="DQ54:DR54"/>
-    <mergeCell ref="DS54:DT54"/>
-    <mergeCell ref="DU54:DV54"/>
-    <mergeCell ref="DW54:DX54"/>
-    <mergeCell ref="DA54:DB54"/>
-    <mergeCell ref="DC54:DD54"/>
-    <mergeCell ref="DE54:DF54"/>
-    <mergeCell ref="DG54:DH54"/>
-    <mergeCell ref="DI54:DJ54"/>
-    <mergeCell ref="DK54:DL54"/>
-    <mergeCell ref="CO54:CP54"/>
-    <mergeCell ref="CQ54:CR54"/>
-    <mergeCell ref="CS54:CT54"/>
-    <mergeCell ref="CU54:CV54"/>
-    <mergeCell ref="CW54:CX54"/>
-    <mergeCell ref="CY54:CZ54"/>
-    <mergeCell ref="CC54:CD54"/>
-    <mergeCell ref="CE54:CF54"/>
-    <mergeCell ref="CG54:CH54"/>
-    <mergeCell ref="CI54:CJ54"/>
-    <mergeCell ref="CK54:CL54"/>
-    <mergeCell ref="CM54:CN54"/>
-    <mergeCell ref="BQ54:BR54"/>
-    <mergeCell ref="BS54:BT54"/>
-    <mergeCell ref="BU54:BV54"/>
-    <mergeCell ref="BW54:BX54"/>
-    <mergeCell ref="BY54:BZ54"/>
-    <mergeCell ref="CA54:CB54"/>
-    <mergeCell ref="BE54:BF54"/>
-    <mergeCell ref="BG54:BH54"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BM54:BN54"/>
-    <mergeCell ref="BO54:BP54"/>
-    <mergeCell ref="AQ53:AT53"/>
-    <mergeCell ref="AU53:AX53"/>
-    <mergeCell ref="AY54:AZ54"/>
-    <mergeCell ref="BA54:BB54"/>
-    <mergeCell ref="BC54:BD54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AO54:AP54"/>
-    <mergeCell ref="AQ54:AR54"/>
-    <mergeCell ref="AY53:BB53"/>
-    <mergeCell ref="AI53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AS54:AT54"/>
-    <mergeCell ref="AU54:AV54"/>
-    <mergeCell ref="AW54:AX54"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="W53:Z53"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="S54:T54"/>
     <mergeCell ref="EI53:EL53"/>
     <mergeCell ref="EM53:EP53"/>
     <mergeCell ref="EQ53:ET53"/>
@@ -24020,33 +23983,70 @@
     <mergeCell ref="CA53:CD53"/>
     <mergeCell ref="CE53:CH53"/>
     <mergeCell ref="CI53:CL53"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="AA54:AB54"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="W53:Z53"/>
-    <mergeCell ref="AA53:AD53"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="AQ53:AT53"/>
+    <mergeCell ref="AU53:AX53"/>
+    <mergeCell ref="AY54:AZ54"/>
+    <mergeCell ref="BA54:BB54"/>
+    <mergeCell ref="BC54:BD54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AO54:AP54"/>
+    <mergeCell ref="AQ54:AR54"/>
+    <mergeCell ref="AY53:BB53"/>
+    <mergeCell ref="AI53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AS54:AT54"/>
+    <mergeCell ref="AU54:AV54"/>
+    <mergeCell ref="AW54:AX54"/>
+    <mergeCell ref="BQ54:BR54"/>
+    <mergeCell ref="BS54:BT54"/>
+    <mergeCell ref="BU54:BV54"/>
+    <mergeCell ref="BW54:BX54"/>
+    <mergeCell ref="BY54:BZ54"/>
+    <mergeCell ref="CA54:CB54"/>
+    <mergeCell ref="BE54:BF54"/>
+    <mergeCell ref="BG54:BH54"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BM54:BN54"/>
+    <mergeCell ref="BO54:BP54"/>
+    <mergeCell ref="CO54:CP54"/>
+    <mergeCell ref="CQ54:CR54"/>
+    <mergeCell ref="CS54:CT54"/>
+    <mergeCell ref="CU54:CV54"/>
+    <mergeCell ref="CW54:CX54"/>
+    <mergeCell ref="CY54:CZ54"/>
+    <mergeCell ref="CC54:CD54"/>
+    <mergeCell ref="CE54:CF54"/>
+    <mergeCell ref="CG54:CH54"/>
+    <mergeCell ref="CI54:CJ54"/>
+    <mergeCell ref="CK54:CL54"/>
+    <mergeCell ref="CM54:CN54"/>
+    <mergeCell ref="DM54:DN54"/>
+    <mergeCell ref="DO54:DP54"/>
+    <mergeCell ref="DQ54:DR54"/>
+    <mergeCell ref="DS54:DT54"/>
+    <mergeCell ref="DU54:DV54"/>
+    <mergeCell ref="DW54:DX54"/>
+    <mergeCell ref="DA54:DB54"/>
+    <mergeCell ref="DC54:DD54"/>
+    <mergeCell ref="DE54:DF54"/>
+    <mergeCell ref="DG54:DH54"/>
+    <mergeCell ref="DI54:DJ54"/>
+    <mergeCell ref="DK54:DL54"/>
+    <mergeCell ref="EK54:EL54"/>
+    <mergeCell ref="EM54:EN54"/>
+    <mergeCell ref="EO54:EP54"/>
+    <mergeCell ref="EQ54:ER54"/>
+    <mergeCell ref="ES54:ET54"/>
+    <mergeCell ref="DY54:DZ54"/>
+    <mergeCell ref="EA54:EB54"/>
+    <mergeCell ref="EC54:ED54"/>
+    <mergeCell ref="EE54:EF54"/>
+    <mergeCell ref="EG54:EH54"/>
+    <mergeCell ref="EI54:EJ54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
